--- a/labourList.xlsx
+++ b/labourList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>labourName</t>
   </si>
@@ -47,37 +47,202 @@
     <t>Painter</t>
   </si>
   <si>
-    <t>Mason</t>
-  </si>
-  <si>
     <t>Ajay Chauhan</t>
   </si>
   <si>
     <t>Dinesh Joshi</t>
   </si>
   <si>
-    <t>9876500001</t>
-  </si>
-  <si>
     <t>Karan Mehta</t>
   </si>
   <si>
-    <t>9123400002</t>
-  </si>
-  <si>
-    <t>9988700003</t>
-  </si>
-  <si>
     <t>Nitin Desai</t>
   </si>
   <si>
-    <t>9090900004</t>
-  </si>
-  <si>
-    <t>Manoj Singh</t>
-  </si>
-  <si>
-    <t>9345600005</t>
+    <t>labourSubSkill</t>
+  </si>
+  <si>
+    <t>Ramesh Verma</t>
+  </si>
+  <si>
+    <t>Wash Basin / Sink Setup, Tap / Faucet Repair, Bathroom Fittings Installation, Water Tank Installation / Repair</t>
+  </si>
+  <si>
+    <t>9799400420</t>
+  </si>
+  <si>
+    <t>Sunita Kumari</t>
+  </si>
+  <si>
+    <t>Interior Wall Painting, Texture Painting, Exterior Wall Painting, Waterproof Coating</t>
+  </si>
+  <si>
+    <t>9105129274</t>
+  </si>
+  <si>
+    <t>Interior Wall Painting, Texture Painting, Whitewash / Limewash</t>
+  </si>
+  <si>
+    <t>9344864459</t>
+  </si>
+  <si>
+    <t>Fan Repair / Installation, Geyser Installation &amp; Repair, AC Repair &amp; Servicing, Switchboard &amp; Wiring</t>
+  </si>
+  <si>
+    <t>9541416797</t>
+  </si>
+  <si>
+    <t>Meena Sharma</t>
+  </si>
+  <si>
+    <t>Cleaning Services</t>
+  </si>
+  <si>
+    <t>Water Tank Cleaning, Septic Tank Cleaning, Home Deep Cleaning, Bathroom Cleaning</t>
+  </si>
+  <si>
+    <t>9443843109</t>
+  </si>
+  <si>
+    <t>Rahul Tiwari</t>
+  </si>
+  <si>
+    <t>Vehicle Services</t>
+  </si>
+  <si>
+    <t>Battery Jumpstart, Car Mechanic, Towing / Breakdown Assistance, Puncture Repair</t>
+  </si>
+  <si>
+    <t>9614320073</t>
+  </si>
+  <si>
+    <t>Mohan Lal</t>
+  </si>
+  <si>
+    <t>Water Pipe Leakage Fix, Geyser Plumbing, Drainage / Blockage Fix</t>
+  </si>
+  <si>
+    <t>9490170352</t>
+  </si>
+  <si>
+    <t>Construction &amp; Civil Work</t>
+  </si>
+  <si>
+    <t>Skilled / Unskilled Labor Supply, Plastering / Wall Putty, Masonry Work, Site Supervision</t>
+  </si>
+  <si>
+    <t>9027758833</t>
+  </si>
+  <si>
+    <t>Vandana Yadav</t>
+  </si>
+  <si>
+    <t>Waterproof Coating, Furniture Paint / Polish, Interior Wall Painting</t>
+  </si>
+  <si>
+    <t>9338117228</t>
+  </si>
+  <si>
+    <t>Bathroom Fittings Installation, Water Tank Installation / Repair</t>
+  </si>
+  <si>
+    <t>9047441874</t>
+  </si>
+  <si>
+    <t>Suresh Kumar</t>
+  </si>
+  <si>
+    <t>Home Appliance Repair</t>
+  </si>
+  <si>
+    <t>TV / LED Repair, Washing Machine Repair, RO / Water Purifier Service, Refrigerator Repair</t>
+  </si>
+  <si>
+    <t>9873872226</t>
+  </si>
+  <si>
+    <t>Anita Devi</t>
+  </si>
+  <si>
+    <t>Site Supervision, Skilled / Unskilled Labor Supply, POP / False Ceiling, Plastering / Wall Putty</t>
+  </si>
+  <si>
+    <t>9799858698</t>
+  </si>
+  <si>
+    <t>Ravi Prasad</t>
+  </si>
+  <si>
+    <t>Whitewash / Limewash, Interior Wall Painting</t>
+  </si>
+  <si>
+    <t>9073548795</t>
+  </si>
+  <si>
+    <t>Geeta Rani</t>
+  </si>
+  <si>
+    <t>Interior Wall Painting, Texture Painting, Waterproof Coating, Exterior Wall Painting</t>
+  </si>
+  <si>
+    <t>9618331743</t>
+  </si>
+  <si>
+    <t>Amitabh Singh</t>
+  </si>
+  <si>
+    <t>Geyser Installation &amp; Repair, Inverter Installation / Repair, MCB / Fuse Issues</t>
+  </si>
+  <si>
+    <t>9035936458</t>
+  </si>
+  <si>
+    <t>Lakshmi Bai</t>
+  </si>
+  <si>
+    <t>POP / False Ceiling, Grill / Railing Installation, Site Supervision, Masonry Work</t>
+  </si>
+  <si>
+    <t>9061490145</t>
+  </si>
+  <si>
+    <t>Naresh Yadav</t>
+  </si>
+  <si>
+    <t>Geyser Installation &amp; Repair, Switchboard &amp; Wiring, Tube Light / LED Installation, MCB / Fuse Issues</t>
+  </si>
+  <si>
+    <t>9847210285</t>
+  </si>
+  <si>
+    <t>Pooja Kumari</t>
+  </si>
+  <si>
+    <t>Pest Control</t>
+  </si>
+  <si>
+    <t>Cockroach Control, Mosquito Fogging, Bed Bug Control, Rodent Control</t>
+  </si>
+  <si>
+    <t>9139393211</t>
+  </si>
+  <si>
+    <t>Vinod Sharma</t>
+  </si>
+  <si>
+    <t>Curtain Rod Fitting, Furniture Assembly, Almirah / Cupboard Repair</t>
+  </si>
+  <si>
+    <t>9512804765</t>
+  </si>
+  <si>
+    <t>Kavita Joshi</t>
+  </si>
+  <si>
+    <t>Water Tank Installation / Repair, Tap / Faucet Repair, Water Pipe Leakage Fix, Drainage / Blockage Fix</t>
+  </si>
+  <si>
+    <t>9714833791</t>
   </si>
 </sst>
 </file>
@@ -109,7 +274,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -117,17 +282,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,15 +586,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="49.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,88 +606,291 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
